--- a/00_data_raw/Belaege_Gewichtung_Szenario3.xlsx
+++ b/00_data_raw/Belaege_Gewichtung_Szenario3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{739C08CA-1593-4041-AF05-F1DC1B2F6D72}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D928BB97-B293-4475-8184-1E5BB8283391}"/>
   <bookViews>
     <workbookView xWindow="-19305" yWindow="-1350" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>group_id</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>within_group_weight</t>
-  </si>
-  <si>
-    <t>total_weight</t>
   </si>
   <si>
     <t>umweltbelastung</t>
@@ -231,6 +228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,7 +524,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,284 +557,246 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
-      </c>
-      <c r="G2">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
         <v>0.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>0.4</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
-      </c>
-      <c r="G5">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
         <v>0.25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
         <v>0.25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
-        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
         <v>0.25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
         <v>0.25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>0.2</v>
-      </c>
-      <c r="G10">
-        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
-      </c>
-      <c r="G11">
-        <v>0.04</v>
+        <v>0.33333333300000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12">
-        <v>0.03</v>
+        <v>0.33333333300000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13">
-        <v>0.03</v>
+        <v>0.33333333300000001</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="315" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/00_data_raw/Belaege_Gewichtung_Szenario3.xlsx
+++ b/00_data_raw/Belaege_Gewichtung_Szenario3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D928BB97-B293-4475-8184-1E5BB8283391}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F473255B-A575-468B-BAA9-FDAC49A88954}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-1350" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21765" yWindow="225" windowWidth="19125" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gewichtung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>group_id</t>
   </si>
@@ -83,9 +83,6 @@
     <t>befahrbarkeit</t>
   </si>
   <si>
-    <t>barrierefreiheit</t>
-  </si>
-  <si>
     <t>recyclingfaehigkeit</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Befahrbarkeit</t>
-  </si>
-  <si>
-    <t>Barrierefreiheit</t>
   </si>
   <si>
     <t>Recyclingfähigkeit</t>
@@ -521,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -590,10 +584,10 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -604,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -613,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -624,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -633,7 +627,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>0.25</v>
@@ -644,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0.8</v>
@@ -653,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0.25</v>
@@ -673,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.33333333300000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -693,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0.33333333300000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -713,30 +707,30 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <v>0.33333333300000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>0.25</v>
+        <v>0.33333333300000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -750,10 +744,10 @@
         <v>0.05</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0.33333333300000001</v>
@@ -770,32 +764,12 @@
         <v>0.05</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>0.33333333300000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>0.05</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13">
         <v>0.33333333300000001</v>
       </c>
     </row>
@@ -819,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="315" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
